--- a/Denislav Zlatanov/lesson 5/TC_002 successful add to cart.xlsx
+++ b/Denislav Zlatanov/lesson 5/TC_002 successful add to cart.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -58,10 +58,16 @@
 Website: http://skillo-bg.com</t>
   </si>
   <si>
-    <t>TC 002</t>
-  </si>
-  <si>
-    <t>registration in automationpractice.com</t>
+    <t>TC_002</t>
+  </si>
+  <si>
+    <t>Successful adding to cart</t>
+  </si>
+  <si>
+    <t>selecting a product and adding to cart</t>
+  </si>
+  <si>
+    <t>registration in www.automationpractice.com</t>
   </si>
   <si>
     <t>automationpractice.com</t>
@@ -73,22 +79,13 @@
     <t>Denislav Zlatanov</t>
   </si>
   <si>
-    <t>Select a product  (size and color) from the site</t>
-  </si>
-  <si>
-    <t xml:space="preserve">click the button " Add to cart" </t>
-  </si>
-  <si>
-    <t>open a windows which says that the product is added to the shopping cart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">click the button "proceed to checkout" </t>
-  </si>
-  <si>
-    <t>Successful add to cart</t>
-  </si>
-  <si>
-    <t>testing the process of adding to cart</t>
+    <t xml:space="preserve">select product (size and color) </t>
+  </si>
+  <si>
+    <t>Press "add to cart: button</t>
+  </si>
+  <si>
+    <t>open new window which says "product is successfully added to the shopping cart"</t>
   </si>
 </sst>
 </file>
@@ -530,7 +527,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -568,7 +565,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -584,7 +581,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -592,7 +589,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -600,7 +597,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -608,7 +605,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -616,7 +613,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -635,16 +632,16 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14" s="4"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
